--- a/data/pca/factorExposure/factorExposure_2015-01-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-01-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01533494083342968</v>
+        <v>0.01148406261508111</v>
       </c>
       <c r="C2">
-        <v>-0.0328646657262448</v>
+        <v>-0.05158694311016043</v>
       </c>
       <c r="D2">
-        <v>0.126685962554772</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.07239049586995508</v>
+      </c>
+      <c r="E2">
+        <v>0.1000776202290852</v>
+      </c>
+      <c r="F2">
+        <v>0.146143985213388</v>
+      </c>
+      <c r="G2">
+        <v>-0.05942177102805812</v>
+      </c>
+      <c r="H2">
+        <v>-0.0695828078568822</v>
+      </c>
+      <c r="I2">
+        <v>-0.02508205445065583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04551134376424874</v>
+        <v>0.02013089391552247</v>
       </c>
       <c r="C4">
-        <v>-0.1202505172959362</v>
+        <v>-0.1424357927621384</v>
       </c>
       <c r="D4">
-        <v>0.08902422130875018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.036044837924194</v>
+      </c>
+      <c r="E4">
+        <v>0.07318458430727824</v>
+      </c>
+      <c r="F4">
+        <v>0.1053478744297186</v>
+      </c>
+      <c r="G4">
+        <v>0.05875043885610785</v>
+      </c>
+      <c r="H4">
+        <v>0.01684590884169362</v>
+      </c>
+      <c r="I4">
+        <v>-0.08243581027739524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02332115889390546</v>
+        <v>0.03025964415579478</v>
       </c>
       <c r="C6">
-        <v>-0.04689237227792941</v>
+        <v>-0.05636496043078926</v>
       </c>
       <c r="D6">
-        <v>0.07881025718611952</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.04364906425557035</v>
+      </c>
+      <c r="E6">
+        <v>0.08624575975713014</v>
+      </c>
+      <c r="F6">
+        <v>0.05568425907684746</v>
+      </c>
+      <c r="G6">
+        <v>-0.04023224292808661</v>
+      </c>
+      <c r="H6">
+        <v>0.03480773902379474</v>
+      </c>
+      <c r="I6">
+        <v>-0.01940941610590171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.007273886748472024</v>
+        <v>0.005939316472965201</v>
       </c>
       <c r="C7">
-        <v>-0.04111019967676496</v>
+        <v>-0.05535207534389241</v>
       </c>
       <c r="D7">
-        <v>0.06500710096129043</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04027707046496195</v>
+      </c>
+      <c r="E7">
+        <v>0.06849349024378162</v>
+      </c>
+      <c r="F7">
+        <v>0.009918960237059019</v>
+      </c>
+      <c r="G7">
+        <v>0.01295520501975236</v>
+      </c>
+      <c r="H7">
+        <v>0.04008291157408863</v>
+      </c>
+      <c r="I7">
+        <v>-0.08546604018459117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.001500997698599399</v>
+        <v>-0.006564833526772905</v>
       </c>
       <c r="C8">
-        <v>-0.04814288476675954</v>
+        <v>-0.05652057548214357</v>
       </c>
       <c r="D8">
-        <v>0.07415721059817836</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02120225300340094</v>
+      </c>
+      <c r="E8">
+        <v>0.06419921206820239</v>
+      </c>
+      <c r="F8">
+        <v>0.08538100076024938</v>
+      </c>
+      <c r="G8">
+        <v>0.03047399220273979</v>
+      </c>
+      <c r="H8">
+        <v>-0.05200774648862603</v>
+      </c>
+      <c r="I8">
+        <v>-0.02038222727596787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0276154490953475</v>
+        <v>0.01187155984140331</v>
       </c>
       <c r="C9">
-        <v>-0.09806994927097001</v>
+        <v>-0.1132532187088619</v>
       </c>
       <c r="D9">
-        <v>0.08169395574015346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0338232628374935</v>
+      </c>
+      <c r="E9">
+        <v>0.06298311852582118</v>
+      </c>
+      <c r="F9">
+        <v>0.07176918521652169</v>
+      </c>
+      <c r="G9">
+        <v>0.005280055929075581</v>
+      </c>
+      <c r="H9">
+        <v>0.03332438410097958</v>
+      </c>
+      <c r="I9">
+        <v>-0.08419748898229254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.215556977530834</v>
+        <v>0.241325937729814</v>
       </c>
       <c r="C10">
-        <v>0.1273369465311438</v>
+        <v>0.09038715214340109</v>
       </c>
       <c r="D10">
-        <v>-0.05174738613771953</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01716973227370681</v>
+      </c>
+      <c r="E10">
+        <v>-0.02394435571474849</v>
+      </c>
+      <c r="F10">
+        <v>0.01391655078359424</v>
+      </c>
+      <c r="G10">
+        <v>0.002949552901618068</v>
+      </c>
+      <c r="H10">
+        <v>0.03561776293338223</v>
+      </c>
+      <c r="I10">
+        <v>-0.04497012302977081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01133309933284312</v>
+        <v>0.01226333659416787</v>
       </c>
       <c r="C11">
-        <v>-0.04549457107014968</v>
+        <v>-0.06673193859225655</v>
       </c>
       <c r="D11">
-        <v>0.04780756493520826</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.01975262193690582</v>
+      </c>
+      <c r="E11">
+        <v>0.05337882653741645</v>
+      </c>
+      <c r="F11">
+        <v>0.006036626566764736</v>
+      </c>
+      <c r="G11">
+        <v>0.0115986388827909</v>
+      </c>
+      <c r="H11">
+        <v>0.03204496370157833</v>
+      </c>
+      <c r="I11">
+        <v>-0.04225419671523421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01506138190108978</v>
+        <v>0.01420983401726368</v>
       </c>
       <c r="C12">
-        <v>-0.04662321668911881</v>
+        <v>-0.05643033213642349</v>
       </c>
       <c r="D12">
-        <v>0.04929955307561822</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02524713333961585</v>
+      </c>
+      <c r="E12">
+        <v>0.03938191296902379</v>
+      </c>
+      <c r="F12">
+        <v>-0.00491022952661772</v>
+      </c>
+      <c r="G12">
+        <v>-0.01544808769859625</v>
+      </c>
+      <c r="H12">
+        <v>0.02768557189456915</v>
+      </c>
+      <c r="I12">
+        <v>-0.04844158744535916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.01906368170675695</v>
+        <v>0.004809827073249966</v>
       </c>
       <c r="C13">
-        <v>-0.05659655787436258</v>
+        <v>-0.08969443661373661</v>
       </c>
       <c r="D13">
-        <v>0.1234959105893245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.08192215025852401</v>
+      </c>
+      <c r="E13">
+        <v>0.1189004280646146</v>
+      </c>
+      <c r="F13">
+        <v>0.05345012097582489</v>
+      </c>
+      <c r="G13">
+        <v>-0.1074802469017975</v>
+      </c>
+      <c r="H13">
+        <v>0.02407267256146337</v>
+      </c>
+      <c r="I13">
+        <v>-0.08699404098660307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.002790321748906476</v>
+        <v>0.005999293388594262</v>
       </c>
       <c r="C14">
-        <v>-0.02352929217911633</v>
+        <v>-0.04872036539944503</v>
       </c>
       <c r="D14">
-        <v>0.05744567971890249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02723731756161034</v>
+      </c>
+      <c r="E14">
+        <v>0.1042468916574298</v>
+      </c>
+      <c r="F14">
+        <v>0.02448088096783108</v>
+      </c>
+      <c r="G14">
+        <v>-0.03937259378516441</v>
+      </c>
+      <c r="H14">
+        <v>0.05729405498266607</v>
+      </c>
+      <c r="I14">
+        <v>-0.1384689351645179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001192910531863979</v>
+        <v>-0.004178292968772936</v>
       </c>
       <c r="C15">
-        <v>-0.02501794885780783</v>
+        <v>-0.04610507196135857</v>
       </c>
       <c r="D15">
-        <v>0.07238431708630068</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03848474918721639</v>
+      </c>
+      <c r="E15">
+        <v>0.07247205676362492</v>
+      </c>
+      <c r="F15">
+        <v>0.0223211059974633</v>
+      </c>
+      <c r="G15">
+        <v>0.005737927160532804</v>
+      </c>
+      <c r="H15">
+        <v>0.00687508637849677</v>
+      </c>
+      <c r="I15">
+        <v>-0.05468192712564978</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.0105405789113076</v>
+        <v>0.0108947965482986</v>
       </c>
       <c r="C16">
-        <v>-0.04213149316478917</v>
+        <v>-0.05737273509720604</v>
       </c>
       <c r="D16">
-        <v>0.04098184015631269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02231644111187986</v>
+      </c>
+      <c r="E16">
+        <v>0.03893545798547307</v>
+      </c>
+      <c r="F16">
+        <v>0.0005974254159097092</v>
+      </c>
+      <c r="G16">
+        <v>-0.003639802164999556</v>
+      </c>
+      <c r="H16">
+        <v>0.03645911431174777</v>
+      </c>
+      <c r="I16">
+        <v>-0.04110797167630269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.01065206783433115</v>
+        <v>0.004014173484169649</v>
       </c>
       <c r="C19">
-        <v>-0.01760679991443159</v>
+        <v>-0.01375168591212031</v>
       </c>
       <c r="D19">
-        <v>0.02608901063668802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.0002878123928354873</v>
+      </c>
+      <c r="E19">
+        <v>0.01049321042955597</v>
+      </c>
+      <c r="F19">
+        <v>-0.01226162820764891</v>
+      </c>
+      <c r="G19">
+        <v>-0.004920437621615655</v>
+      </c>
+      <c r="H19">
+        <v>-0.02685625863102379</v>
+      </c>
+      <c r="I19">
+        <v>-0.02727133179457192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.0002047767007915731</v>
+        <v>0.002398754881091608</v>
       </c>
       <c r="C20">
-        <v>-0.04613776932118466</v>
+        <v>-0.06597516542940986</v>
       </c>
       <c r="D20">
-        <v>0.0640489165925139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03909333752163078</v>
+      </c>
+      <c r="E20">
+        <v>0.0657974309474805</v>
+      </c>
+      <c r="F20">
+        <v>0.009397006552057613</v>
+      </c>
+      <c r="G20">
+        <v>0.01296161653016949</v>
+      </c>
+      <c r="H20">
+        <v>0.05905515225606477</v>
+      </c>
+      <c r="I20">
+        <v>-0.06717088347461499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01812613590872253</v>
+        <v>0.01012154054697879</v>
       </c>
       <c r="C21">
-        <v>-0.0611369903889791</v>
+        <v>-0.07104612190196183</v>
       </c>
       <c r="D21">
-        <v>0.08365359300683547</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03482390539730588</v>
+      </c>
+      <c r="E21">
+        <v>0.07888318227546358</v>
+      </c>
+      <c r="F21">
+        <v>0.0640363351121923</v>
+      </c>
+      <c r="G21">
+        <v>-0.1053583737303794</v>
+      </c>
+      <c r="H21">
+        <v>-0.0083943011430629</v>
+      </c>
+      <c r="I21">
+        <v>-0.1858424406194566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.002136570234425422</v>
+        <v>-0.009415878139684791</v>
       </c>
       <c r="C22">
-        <v>-0.06656740035940786</v>
+        <v>-0.1020932528608876</v>
       </c>
       <c r="D22">
-        <v>0.1894780578758245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.166423000792364</v>
+      </c>
+      <c r="E22">
+        <v>0.1630123798343309</v>
+      </c>
+      <c r="F22">
+        <v>0.2819270047523815</v>
+      </c>
+      <c r="G22">
+        <v>0.1416490733756483</v>
+      </c>
+      <c r="H22">
+        <v>-0.2247276772308892</v>
+      </c>
+      <c r="I22">
+        <v>0.4242227277065708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.002121309417742504</v>
+        <v>-0.006131014443384329</v>
       </c>
       <c r="C23">
-        <v>-0.0677835334830606</v>
+        <v>-0.104894968158423</v>
       </c>
       <c r="D23">
-        <v>0.1890447312054996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1688077380505594</v>
+      </c>
+      <c r="E23">
+        <v>0.1602766029055765</v>
+      </c>
+      <c r="F23">
+        <v>0.2771589666456146</v>
+      </c>
+      <c r="G23">
+        <v>0.1344157693102082</v>
+      </c>
+      <c r="H23">
+        <v>-0.2154204437143653</v>
+      </c>
+      <c r="I23">
+        <v>0.3965528161368033</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.01398287187436914</v>
+        <v>0.01282128786720675</v>
       </c>
       <c r="C24">
-        <v>-0.06464689719291115</v>
+        <v>-0.07456943555285814</v>
       </c>
       <c r="D24">
-        <v>0.05378068786649479</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.01544732861214877</v>
+      </c>
+      <c r="E24">
+        <v>0.05326211561532492</v>
+      </c>
+      <c r="F24">
+        <v>0.001864552381190717</v>
+      </c>
+      <c r="G24">
+        <v>0.001026218392508282</v>
+      </c>
+      <c r="H24">
+        <v>0.02650891240058998</v>
+      </c>
+      <c r="I24">
+        <v>-0.06033333370836718</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.01654036283129453</v>
+        <v>0.01716289885823452</v>
       </c>
       <c r="C25">
-        <v>-0.05516805467178397</v>
+        <v>-0.06723530990153813</v>
       </c>
       <c r="D25">
-        <v>0.04259459002270848</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01754589016508445</v>
+      </c>
+      <c r="E25">
+        <v>0.03938684138081259</v>
+      </c>
+      <c r="F25">
+        <v>0.005343976727429058</v>
+      </c>
+      <c r="G25">
+        <v>0.005839521389078493</v>
+      </c>
+      <c r="H25">
+        <v>0.03444273347962658</v>
+      </c>
+      <c r="I25">
+        <v>-0.04075839542152918</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.008234554547222132</v>
+        <v>0.01743118904710877</v>
       </c>
       <c r="C26">
-        <v>-0.0336082780499338</v>
+        <v>-0.05144374181293498</v>
       </c>
       <c r="D26">
-        <v>0.05452405652708488</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.001055042532146038</v>
+      </c>
+      <c r="E26">
+        <v>0.08301299016444169</v>
+      </c>
+      <c r="F26">
+        <v>0.03418978534003867</v>
+      </c>
+      <c r="G26">
+        <v>-0.008834450348193877</v>
+      </c>
+      <c r="H26">
+        <v>0.02238201159879111</v>
+      </c>
+      <c r="I26">
+        <v>-0.1292797648344553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.3010305192136058</v>
+        <v>0.3134467703606036</v>
       </c>
       <c r="C28">
-        <v>0.1441345844337621</v>
+        <v>0.1020866491404521</v>
       </c>
       <c r="D28">
-        <v>-0.03862372066863342</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01411907048949258</v>
+      </c>
+      <c r="E28">
+        <v>-0.0376796945581522</v>
+      </c>
+      <c r="F28">
+        <v>0.05642653350426616</v>
+      </c>
+      <c r="G28">
+        <v>0.04645117293937827</v>
+      </c>
+      <c r="H28">
+        <v>-0.04023408438424725</v>
+      </c>
+      <c r="I28">
+        <v>-0.06930469724010471</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.006834753994845594</v>
+        <v>0.005092107196808157</v>
       </c>
       <c r="C29">
-        <v>-0.03345063422593291</v>
+        <v>-0.05932556907183532</v>
       </c>
       <c r="D29">
-        <v>0.06880397421205216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03945927417887438</v>
+      </c>
+      <c r="E29">
+        <v>0.1123021367262029</v>
+      </c>
+      <c r="F29">
+        <v>0.0266003687009744</v>
+      </c>
+      <c r="G29">
+        <v>-0.05865270281079333</v>
+      </c>
+      <c r="H29">
+        <v>0.08175031349999767</v>
+      </c>
+      <c r="I29">
+        <v>-0.1736005382957052</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02958766146806317</v>
+        <v>0.02097354792697912</v>
       </c>
       <c r="C30">
-        <v>-0.09331746243472819</v>
+        <v>-0.1179982733224935</v>
       </c>
       <c r="D30">
-        <v>0.1288028802012667</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06063746737064857</v>
+      </c>
+      <c r="E30">
+        <v>0.1118105052425451</v>
+      </c>
+      <c r="F30">
+        <v>0.06096397876652531</v>
+      </c>
+      <c r="G30">
+        <v>0.01664061449686722</v>
+      </c>
+      <c r="H30">
+        <v>0.00584046480915927</v>
+      </c>
+      <c r="I30">
+        <v>-0.02651257266546314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.01902446624958358</v>
+        <v>0.01135954043340259</v>
       </c>
       <c r="C31">
-        <v>-0.0916969128125617</v>
+        <v>-0.0998469090357679</v>
       </c>
       <c r="D31">
-        <v>0.03270121054711573</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.000521147066720394</v>
+      </c>
+      <c r="E31">
+        <v>0.02749711715181756</v>
+      </c>
+      <c r="F31">
+        <v>0.001707263171227911</v>
+      </c>
+      <c r="G31">
+        <v>0.001444036201055974</v>
+      </c>
+      <c r="H31">
+        <v>-0.02168432954000261</v>
+      </c>
+      <c r="I31">
+        <v>-0.0583411003467421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02293912521983276</v>
+        <v>0.01699401533523284</v>
       </c>
       <c r="C32">
-        <v>-0.05099861667356246</v>
+        <v>-0.06014147052093866</v>
       </c>
       <c r="D32">
-        <v>0.09131206763203716</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0355542667986317</v>
+      </c>
+      <c r="E32">
+        <v>0.0595108411412896</v>
+      </c>
+      <c r="F32">
+        <v>0.1096944667739366</v>
+      </c>
+      <c r="G32">
+        <v>-0.04233696911966441</v>
+      </c>
+      <c r="H32">
+        <v>0.002588152585467588</v>
+      </c>
+      <c r="I32">
+        <v>-0.1016900767478566</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.00950022829704655</v>
+        <v>0.01048133988482639</v>
       </c>
       <c r="C33">
-        <v>-0.0608078816577761</v>
+        <v>-0.08661245868513642</v>
       </c>
       <c r="D33">
-        <v>0.08272471401026545</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04841577485418132</v>
+      </c>
+      <c r="E33">
+        <v>0.08106225807268519</v>
+      </c>
+      <c r="F33">
+        <v>0.02130286423325602</v>
+      </c>
+      <c r="G33">
+        <v>-0.002586151344058587</v>
+      </c>
+      <c r="H33">
+        <v>0.03267039683021293</v>
+      </c>
+      <c r="I33">
+        <v>-0.06202349455323809</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.01417864451871371</v>
+        <v>0.01337804601192961</v>
       </c>
       <c r="C34">
-        <v>-0.06347922394020382</v>
+        <v>-0.06420000706046834</v>
       </c>
       <c r="D34">
-        <v>0.06569097521575286</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.01486437861885749</v>
+      </c>
+      <c r="E34">
+        <v>0.04450950035905549</v>
+      </c>
+      <c r="F34">
+        <v>-0.0280053227833715</v>
+      </c>
+      <c r="G34">
+        <v>-0.006449383231569902</v>
+      </c>
+      <c r="H34">
+        <v>0.005738885089404852</v>
+      </c>
+      <c r="I34">
+        <v>-0.02957296914673894</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.001839905930020942</v>
+        <v>0.004876060174692804</v>
       </c>
       <c r="C35">
-        <v>-0.001857319641177817</v>
+        <v>-0.02290662030157047</v>
       </c>
       <c r="D35">
-        <v>0.007436944364774165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01358797346614114</v>
+      </c>
+      <c r="E35">
+        <v>0.04099682877991529</v>
+      </c>
+      <c r="F35">
+        <v>0.02229366178556202</v>
+      </c>
+      <c r="G35">
+        <v>-0.01678882369550466</v>
+      </c>
+      <c r="H35">
+        <v>0.04996395519402082</v>
+      </c>
+      <c r="I35">
+        <v>-0.1013983391180648</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.007080210037800462</v>
+        <v>0.009915229663987973</v>
       </c>
       <c r="C36">
-        <v>-0.03033749986359137</v>
+        <v>-0.04164353399473955</v>
       </c>
       <c r="D36">
-        <v>0.04209022111304178</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.00929124990798994</v>
+      </c>
+      <c r="E36">
+        <v>0.0659739855493484</v>
+      </c>
+      <c r="F36">
+        <v>0.03859391126654706</v>
+      </c>
+      <c r="G36">
+        <v>-0.00783560721062747</v>
+      </c>
+      <c r="H36">
+        <v>0.02465242074522387</v>
+      </c>
+      <c r="I36">
+        <v>-0.07477597003537802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.007457738591541417</v>
+        <v>0.00810136158789387</v>
       </c>
       <c r="C38">
-        <v>-0.01909519066848762</v>
+        <v>-0.0436153217336965</v>
       </c>
       <c r="D38">
-        <v>0.06742118748512863</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.03823979608157834</v>
+      </c>
+      <c r="E38">
+        <v>0.07838176888624783</v>
+      </c>
+      <c r="F38">
+        <v>0.01384698648700624</v>
+      </c>
+      <c r="G38">
+        <v>0.04945520691455912</v>
+      </c>
+      <c r="H38">
+        <v>-0.002091530406069967</v>
+      </c>
+      <c r="I38">
+        <v>-0.08104843095902931</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01818628079775235</v>
+        <v>0.01199424511648152</v>
       </c>
       <c r="C39">
-        <v>-0.07659561410963291</v>
+        <v>-0.1038424317314853</v>
       </c>
       <c r="D39">
-        <v>0.1035258821470551</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.03369018259010003</v>
+      </c>
+      <c r="E39">
+        <v>0.09428007440687031</v>
+      </c>
+      <c r="F39">
+        <v>-0.0007666106396716517</v>
+      </c>
+      <c r="G39">
+        <v>-0.01397216508217854</v>
+      </c>
+      <c r="H39">
+        <v>0.03769170324692091</v>
+      </c>
+      <c r="I39">
+        <v>-0.05321310565253274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.007189932029972484</v>
+        <v>0.01061984581861738</v>
       </c>
       <c r="C40">
-        <v>-0.02394532922599613</v>
+        <v>-0.04957706818643581</v>
       </c>
       <c r="D40">
-        <v>0.09788809968767</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.06192727988554796</v>
+      </c>
+      <c r="E40">
+        <v>0.1178703304866599</v>
+      </c>
+      <c r="F40">
+        <v>-0.006392797369525516</v>
+      </c>
+      <c r="G40">
+        <v>-0.02184396676644453</v>
+      </c>
+      <c r="H40">
+        <v>0.03250976411893318</v>
+      </c>
+      <c r="I40">
+        <v>-0.006245694828705279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.009333325952052536</v>
+        <v>0.01745239000434031</v>
       </c>
       <c r="C41">
-        <v>-0.02218407794116927</v>
+        <v>-0.04076960156076983</v>
       </c>
       <c r="D41">
-        <v>0.01757278040498424</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01456070996093856</v>
+      </c>
+      <c r="E41">
+        <v>0.01828086950193452</v>
+      </c>
+      <c r="F41">
+        <v>-0.010817120811573</v>
+      </c>
+      <c r="G41">
+        <v>0.006370677819623905</v>
+      </c>
+      <c r="H41">
+        <v>0.007154310426376455</v>
+      </c>
+      <c r="I41">
+        <v>-0.04446368253998177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.003517675104410705</v>
+        <v>0.008382528783908308</v>
       </c>
       <c r="C43">
-        <v>-0.01836895972137317</v>
+        <v>-0.03368694435620406</v>
       </c>
       <c r="D43">
-        <v>0.03656113304420761</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0158956950577968</v>
+      </c>
+      <c r="E43">
+        <v>0.04369028090943991</v>
+      </c>
+      <c r="F43">
+        <v>0.0005661788805919309</v>
+      </c>
+      <c r="G43">
+        <v>0.01180639957087675</v>
+      </c>
+      <c r="H43">
+        <v>0.01821887783064369</v>
+      </c>
+      <c r="I43">
+        <v>-0.05462447626029519</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01993009578985814</v>
+        <v>0.007861976325053146</v>
       </c>
       <c r="C44">
-        <v>-0.05445796527208855</v>
+        <v>-0.07473519605642077</v>
       </c>
       <c r="D44">
-        <v>0.07993731693370679</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03257437822353765</v>
+      </c>
+      <c r="E44">
+        <v>0.0999225424305528</v>
+      </c>
+      <c r="F44">
+        <v>0.04571120547148761</v>
+      </c>
+      <c r="G44">
+        <v>0.009109316507866892</v>
+      </c>
+      <c r="H44">
+        <v>-0.006523296360226509</v>
+      </c>
+      <c r="I44">
+        <v>-0.0288253998207979</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.001482546596961319</v>
+        <v>-0.000743349576801995</v>
       </c>
       <c r="C46">
-        <v>-0.04230891775648775</v>
+        <v>-0.05411092888716449</v>
       </c>
       <c r="D46">
-        <v>0.06957319856427462</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01937247618092108</v>
+      </c>
+      <c r="E46">
+        <v>0.08647790070082605</v>
+      </c>
+      <c r="F46">
+        <v>0.01947810743750894</v>
+      </c>
+      <c r="G46">
+        <v>-0.01321455260419118</v>
+      </c>
+      <c r="H46">
+        <v>0.04984500705866815</v>
+      </c>
+      <c r="I46">
+        <v>-0.1126732905787375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.0501275005763885</v>
+        <v>0.02987510694164382</v>
       </c>
       <c r="C47">
-        <v>-0.1187783878558295</v>
+        <v>-0.1178399595554016</v>
       </c>
       <c r="D47">
-        <v>0.03898998890439756</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.008076359227272371</v>
+      </c>
+      <c r="E47">
+        <v>0.01704056271191068</v>
+      </c>
+      <c r="F47">
+        <v>-0.004862852372015908</v>
+      </c>
+      <c r="G47">
+        <v>0.01212953126516355</v>
+      </c>
+      <c r="H47">
+        <v>-0.00428582358009788</v>
+      </c>
+      <c r="I47">
+        <v>-0.08907478006771025</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.008991427985896439</v>
+        <v>0.01378287861261605</v>
       </c>
       <c r="C48">
-        <v>-0.03394238158212319</v>
+        <v>-0.04793326818620903</v>
       </c>
       <c r="D48">
-        <v>0.04296653253086231</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0001722284768244442</v>
+      </c>
+      <c r="E48">
+        <v>0.07585777174240735</v>
+      </c>
+      <c r="F48">
+        <v>0.0480075110235373</v>
+      </c>
+      <c r="G48">
+        <v>-0.0007537886026447471</v>
+      </c>
+      <c r="H48">
+        <v>0.03065362342246763</v>
+      </c>
+      <c r="I48">
+        <v>-0.1205670270029047</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002873259868975126</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.006460801308774988</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.00141402640223428</v>
+      </c>
+      <c r="E49">
+        <v>0.004219768342118076</v>
+      </c>
+      <c r="F49">
+        <v>-0.01311979716193617</v>
+      </c>
+      <c r="G49">
+        <v>-0.008695665080626341</v>
+      </c>
+      <c r="H49">
+        <v>0.01376776716074712</v>
+      </c>
+      <c r="I49">
+        <v>0.009496346746912812</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.01689157895776902</v>
+        <v>0.0117969723617976</v>
       </c>
       <c r="C50">
-        <v>-0.05966109858477741</v>
+        <v>-0.075468259521907</v>
       </c>
       <c r="D50">
-        <v>0.04417165096133908</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.01690455577311541</v>
+      </c>
+      <c r="E50">
+        <v>0.03541224716909924</v>
+      </c>
+      <c r="F50">
+        <v>0.0116562024585229</v>
+      </c>
+      <c r="G50">
+        <v>0.01114679153456473</v>
+      </c>
+      <c r="H50">
+        <v>-0.01180600891893671</v>
+      </c>
+      <c r="I50">
+        <v>-0.06026071344495045</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.004389836183028869</v>
+        <v>-0.005531167260093709</v>
       </c>
       <c r="C51">
-        <v>-0.01698058112421606</v>
+        <v>-0.0274021287394037</v>
       </c>
       <c r="D51">
-        <v>0.06294824785330443</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01491707212610493</v>
+      </c>
+      <c r="E51">
+        <v>0.05841176338311173</v>
+      </c>
+      <c r="F51">
+        <v>0.05272760790497349</v>
+      </c>
+      <c r="G51">
+        <v>-0.01654638695896413</v>
+      </c>
+      <c r="H51">
+        <v>0.001186211579420356</v>
+      </c>
+      <c r="I51">
+        <v>-0.1014265932100128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.08998483204046573</v>
+        <v>0.06302009022957453</v>
       </c>
       <c r="C53">
-        <v>-0.1522525235396845</v>
+        <v>-0.1622376906670432</v>
       </c>
       <c r="D53">
-        <v>-0.004625931108233231</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04317510988686438</v>
+      </c>
+      <c r="E53">
+        <v>-0.04544850693436757</v>
+      </c>
+      <c r="F53">
+        <v>-0.02379700010392452</v>
+      </c>
+      <c r="G53">
+        <v>0.01418503100699427</v>
+      </c>
+      <c r="H53">
+        <v>-0.0348037193666079</v>
+      </c>
+      <c r="I53">
+        <v>-0.02070815859583506</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.008373297273253597</v>
+        <v>0.01310014776777827</v>
       </c>
       <c r="C54">
-        <v>-0.03367921717441406</v>
+        <v>-0.05207964508757144</v>
       </c>
       <c r="D54">
-        <v>0.07731376624224068</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.04490751510526499</v>
+      </c>
+      <c r="E54">
+        <v>0.05722029287899945</v>
+      </c>
+      <c r="F54">
+        <v>0.01236081737707934</v>
+      </c>
+      <c r="G54">
+        <v>0.004738857883865375</v>
+      </c>
+      <c r="H54">
+        <v>0.007164344559650326</v>
+      </c>
+      <c r="I54">
+        <v>-0.090611875317098</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.06318201817468458</v>
+        <v>0.03906985566845109</v>
       </c>
       <c r="C55">
-        <v>-0.1128042026625213</v>
+        <v>-0.1166593132381285</v>
       </c>
       <c r="D55">
-        <v>-0.004745299224803436</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05269962542645693</v>
+      </c>
+      <c r="E55">
+        <v>-0.01920463982151307</v>
+      </c>
+      <c r="F55">
+        <v>-0.03322310344169813</v>
+      </c>
+      <c r="G55">
+        <v>0.002688345505872532</v>
+      </c>
+      <c r="H55">
+        <v>-0.04259993326955994</v>
+      </c>
+      <c r="I55">
+        <v>-0.02341402771363957</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.09959830238126977</v>
+        <v>0.06052802100370929</v>
       </c>
       <c r="C56">
-        <v>-0.1711041910932638</v>
+        <v>-0.186131792715394</v>
       </c>
       <c r="D56">
-        <v>0.02466735114312164</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0521037108395932</v>
+      </c>
+      <c r="E56">
+        <v>-0.03585141722646125</v>
+      </c>
+      <c r="F56">
+        <v>-0.06756299871443025</v>
+      </c>
+      <c r="G56">
+        <v>0.01938920080695091</v>
+      </c>
+      <c r="H56">
+        <v>-0.1206499680856686</v>
+      </c>
+      <c r="I56">
+        <v>-0.01705557844046579</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2344,373 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.02068017022524152</v>
+        <v>0.01161596277568089</v>
       </c>
       <c r="C58">
-        <v>-0.05792089639830414</v>
+        <v>-0.1092054044003707</v>
       </c>
       <c r="D58">
-        <v>0.1789595011737832</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.1509775049016118</v>
+      </c>
+      <c r="E58">
+        <v>0.1465330840357106</v>
+      </c>
+      <c r="F58">
+        <v>0.2695910204089646</v>
+      </c>
+      <c r="G58">
+        <v>0.06774465986853961</v>
+      </c>
+      <c r="H58">
+        <v>-0.1260074222865343</v>
+      </c>
+      <c r="I58">
+        <v>0.05801458854426497</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.2335148588508326</v>
+        <v>0.2675145339647787</v>
       </c>
       <c r="C59">
-        <v>0.08715745349704983</v>
+        <v>0.05415982494893645</v>
       </c>
       <c r="D59">
-        <v>0.04998755936226171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02200246330586618</v>
+      </c>
+      <c r="E59">
+        <v>0.02574320882687631</v>
+      </c>
+      <c r="F59">
+        <v>0.0274809974795423</v>
+      </c>
+      <c r="G59">
+        <v>-0.01743618140665408</v>
+      </c>
+      <c r="H59">
+        <v>-0.0009129528330253475</v>
+      </c>
+      <c r="I59">
+        <v>0.02670298418228883</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1526276274523311</v>
+        <v>0.1524257498994281</v>
       </c>
       <c r="C60">
-        <v>-0.1181993988139976</v>
+        <v>-0.1524379077429495</v>
       </c>
       <c r="D60">
-        <v>0.0909181120810994</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03664841465959168</v>
+      </c>
+      <c r="E60">
+        <v>0.07430533597846975</v>
+      </c>
+      <c r="F60">
+        <v>-0.2062226697399006</v>
+      </c>
+      <c r="G60">
+        <v>-0.1120847917324192</v>
+      </c>
+      <c r="H60">
+        <v>0.2045045610584735</v>
+      </c>
+      <c r="I60">
+        <v>0.2727638198230045</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02271995865718396</v>
+        <v>0.01803418058258991</v>
       </c>
       <c r="C61">
-        <v>-0.06499045146571379</v>
+        <v>-0.08954908856395251</v>
       </c>
       <c r="D61">
-        <v>0.07398437162461684</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.02179928077953314</v>
+      </c>
+      <c r="E61">
+        <v>0.07527597289665949</v>
+      </c>
+      <c r="F61">
+        <v>-0.01484610498666624</v>
+      </c>
+      <c r="G61">
+        <v>-0.001869677078570324</v>
+      </c>
+      <c r="H61">
+        <v>0.02918779335430075</v>
+      </c>
+      <c r="I61">
+        <v>-0.06497944364562409</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0002945307052873059</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.001066418039071396</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.000307111667389767</v>
+      </c>
+      <c r="E62">
+        <v>-0.000645434413725057</v>
+      </c>
+      <c r="F62">
+        <v>0.001799002631043332</v>
+      </c>
+      <c r="G62">
+        <v>0.0001756335690173531</v>
+      </c>
+      <c r="H62">
+        <v>-0.001085447403396618</v>
+      </c>
+      <c r="I62">
+        <v>-0.003026308749173782</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.004957666272815118</v>
+        <v>0.01734435316626283</v>
       </c>
       <c r="C63">
-        <v>-0.04822778643229183</v>
+        <v>-0.06382644529674486</v>
       </c>
       <c r="D63">
-        <v>0.06138493753827968</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01068974154384984</v>
+      </c>
+      <c r="E63">
+        <v>0.07432417189732775</v>
+      </c>
+      <c r="F63">
+        <v>0.00731891450062112</v>
+      </c>
+      <c r="G63">
+        <v>-0.005736291042519036</v>
+      </c>
+      <c r="H63">
+        <v>0.02699607091235283</v>
+      </c>
+      <c r="I63">
+        <v>-0.07939504913709719</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.035591606208978</v>
+        <v>0.01751712059123735</v>
       </c>
       <c r="C64">
-        <v>-0.1110129821162538</v>
+        <v>-0.1090121978535264</v>
       </c>
       <c r="D64">
-        <v>0.02122255228531202</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01129882382097659</v>
+      </c>
+      <c r="E64">
+        <v>0.02908811638922542</v>
+      </c>
+      <c r="F64">
+        <v>0.01713985347944114</v>
+      </c>
+      <c r="G64">
+        <v>0.01711959127656609</v>
+      </c>
+      <c r="H64">
+        <v>0.05679859286161356</v>
+      </c>
+      <c r="I64">
+        <v>0.01565160027570642</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.01983718210430472</v>
+        <v>0.02384214246402587</v>
       </c>
       <c r="C65">
-        <v>-0.04029405343587528</v>
+        <v>-0.06470682282362211</v>
       </c>
       <c r="D65">
-        <v>0.08511706228732291</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.06290631915221885</v>
+      </c>
+      <c r="E65">
+        <v>0.09227793427359683</v>
+      </c>
+      <c r="F65">
+        <v>0.003403434597087716</v>
+      </c>
+      <c r="G65">
+        <v>0.002779950453425836</v>
+      </c>
+      <c r="H65">
+        <v>0.08911972257043714</v>
+      </c>
+      <c r="I65">
+        <v>0.02189395858213751</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02459872962049119</v>
+        <v>0.01357278944939972</v>
       </c>
       <c r="C66">
-        <v>-0.09476758922783797</v>
+        <v>-0.1286627944598926</v>
       </c>
       <c r="D66">
-        <v>0.1333486452117818</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.06320977434823416</v>
+      </c>
+      <c r="E66">
+        <v>0.103456715152076</v>
+      </c>
+      <c r="F66">
+        <v>0.01055504234620448</v>
+      </c>
+      <c r="G66">
+        <v>-0.003681940569817149</v>
+      </c>
+      <c r="H66">
+        <v>0.00806996784388616</v>
+      </c>
+      <c r="I66">
+        <v>-0.0466320778051199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.01945504003164357</v>
+        <v>0.01840946013820483</v>
       </c>
       <c r="C67">
-        <v>-0.01942719662981666</v>
+        <v>-0.04149597453551757</v>
       </c>
       <c r="D67">
-        <v>0.03635176874928129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0124526969125441</v>
+      </c>
+      <c r="E67">
+        <v>0.06376582363345455</v>
+      </c>
+      <c r="F67">
+        <v>-0.02560922151783523</v>
+      </c>
+      <c r="G67">
+        <v>0.03996500147687863</v>
+      </c>
+      <c r="H67">
+        <v>0.01615863170205143</v>
+      </c>
+      <c r="I67">
+        <v>-0.06312411549647159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2306638471798839</v>
+        <v>0.2774209015283649</v>
       </c>
       <c r="C68">
-        <v>0.099179550541455</v>
+        <v>0.06496705093878274</v>
       </c>
       <c r="D68">
-        <v>0.01950085502701078</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.04153674308407703</v>
+      </c>
+      <c r="E68">
+        <v>0.01127119731174846</v>
+      </c>
+      <c r="F68">
+        <v>0.04791531874612591</v>
+      </c>
+      <c r="G68">
+        <v>0.0160904888404638</v>
+      </c>
+      <c r="H68">
+        <v>-0.03521636616051343</v>
+      </c>
+      <c r="I68">
+        <v>0.01384802191875103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.04328557986889801</v>
+        <v>0.01704120530595774</v>
       </c>
       <c r="C69">
-        <v>-0.1182589573718705</v>
+        <v>-0.1038532505418317</v>
       </c>
       <c r="D69">
-        <v>0.04770368920727904</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01815763098503342</v>
+      </c>
+      <c r="E69">
+        <v>0.02569780751054068</v>
+      </c>
+      <c r="F69">
+        <v>-0.01632900258218408</v>
+      </c>
+      <c r="G69">
+        <v>0.004268421440019893</v>
+      </c>
+      <c r="H69">
+        <v>-0.004185411343204794</v>
+      </c>
+      <c r="I69">
+        <v>-0.05282025207737496</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2459635412472846</v>
+        <v>0.2664982001068503</v>
       </c>
       <c r="C71">
-        <v>0.1200002183613434</v>
+        <v>0.07997353549025664</v>
       </c>
       <c r="D71">
-        <v>0.01907484539626562</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01687420110551666</v>
+      </c>
+      <c r="E71">
+        <v>0.01944308283842444</v>
+      </c>
+      <c r="F71">
+        <v>0.01890576816739503</v>
+      </c>
+      <c r="G71">
+        <v>0.03045615908252871</v>
+      </c>
+      <c r="H71">
+        <v>-0.01166324404672137</v>
+      </c>
+      <c r="I71">
+        <v>-0.07607596085950179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.08468182328724842</v>
+        <v>0.06355141435192826</v>
       </c>
       <c r="C72">
-        <v>-0.113344789891133</v>
+        <v>-0.1344864054687621</v>
       </c>
       <c r="D72">
-        <v>0.09005679280995868</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01664311011156051</v>
+      </c>
+      <c r="E72">
+        <v>0.05203985881277909</v>
+      </c>
+      <c r="F72">
+        <v>-0.02886437438946899</v>
+      </c>
+      <c r="G72">
+        <v>-0.01372690500917997</v>
+      </c>
+      <c r="H72">
+        <v>0.02963884647449989</v>
+      </c>
+      <c r="I72">
+        <v>0.02503329162207003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1272279250801467</v>
+        <v>0.1459700520439865</v>
       </c>
       <c r="C73">
-        <v>-0.1021361345610935</v>
+        <v>-0.1621625630465654</v>
       </c>
       <c r="D73">
-        <v>0.1331590462407211</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.04602180794313909</v>
+      </c>
+      <c r="E73">
+        <v>0.1701750460419099</v>
+      </c>
+      <c r="F73">
+        <v>-0.2979477527596193</v>
+      </c>
+      <c r="G73">
+        <v>-0.1374403405238545</v>
+      </c>
+      <c r="H73">
+        <v>0.3194660857061642</v>
+      </c>
+      <c r="I73">
+        <v>0.2821116004565158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.07665843380947539</v>
+        <v>0.05023286927700914</v>
       </c>
       <c r="C74">
-        <v>-0.1340320669626961</v>
+        <v>-0.1364330415398351</v>
       </c>
       <c r="D74">
-        <v>-0.04837730677042731</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.06328209977374973</v>
+      </c>
+      <c r="E74">
+        <v>-0.04296145212186707</v>
+      </c>
+      <c r="F74">
+        <v>-0.01716917930842828</v>
+      </c>
+      <c r="G74">
+        <v>0.0127588538572273</v>
+      </c>
+      <c r="H74">
+        <v>-0.02272017307990054</v>
+      </c>
+      <c r="I74">
+        <v>-0.02577172668134994</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1812815621451491</v>
+        <v>0.09918824467595883</v>
       </c>
       <c r="C75">
-        <v>-0.2271425114763139</v>
+        <v>-0.2400771746110748</v>
       </c>
       <c r="D75">
-        <v>-0.01849360726483929</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1067766866133925</v>
+      </c>
+      <c r="E75">
+        <v>-0.1020678437155217</v>
+      </c>
+      <c r="F75">
+        <v>-0.1654000457184943</v>
+      </c>
+      <c r="G75">
+        <v>0.1229345978930734</v>
+      </c>
+      <c r="H75">
+        <v>-0.2161827039855418</v>
+      </c>
+      <c r="I75">
+        <v>-0.0241936132373578</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.09681486492032101</v>
+        <v>0.05669867559519626</v>
       </c>
       <c r="C76">
-        <v>-0.1635285587591874</v>
+        <v>-0.1741134109871207</v>
       </c>
       <c r="D76">
-        <v>0.01308846760249361</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0630471597116483</v>
+      </c>
+      <c r="E76">
+        <v>-0.02554524773209225</v>
+      </c>
+      <c r="F76">
+        <v>-0.09376290038958671</v>
+      </c>
+      <c r="G76">
+        <v>0.009977699794269381</v>
+      </c>
+      <c r="H76">
+        <v>-0.07469520955001215</v>
+      </c>
+      <c r="I76">
+        <v>-0.04972735513651628</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.03336140244761993</v>
+        <v>0.02592202656486568</v>
       </c>
       <c r="C77">
-        <v>-0.08361894835607177</v>
+        <v>-0.1392371697657944</v>
       </c>
       <c r="D77">
-        <v>0.2666195401624735</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.8012236169881501</v>
+      </c>
+      <c r="E77">
+        <v>-0.5495404644633145</v>
+      </c>
+      <c r="F77">
+        <v>-0.08822222425298423</v>
+      </c>
+      <c r="G77">
+        <v>0.0318903635714744</v>
+      </c>
+      <c r="H77">
+        <v>0.07065568941669738</v>
+      </c>
+      <c r="I77">
+        <v>-0.08105155476752098</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.03322700768951486</v>
+        <v>0.0277256400962735</v>
       </c>
       <c r="C78">
-        <v>-0.08841946331375804</v>
+        <v>-0.1036458897330413</v>
       </c>
       <c r="D78">
-        <v>0.1156452232470424</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.01021951290353368</v>
+      </c>
+      <c r="E78">
+        <v>0.09751342620430985</v>
+      </c>
+      <c r="F78">
+        <v>0.05751893379637731</v>
+      </c>
+      <c r="G78">
+        <v>-0.02295431029108418</v>
+      </c>
+      <c r="H78">
+        <v>-0.0902306504411549</v>
+      </c>
+      <c r="I78">
+        <v>-0.1053049681561135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.09736974945480824</v>
+        <v>0.05751860596868309</v>
       </c>
       <c r="C79">
-        <v>-0.366158244794923</v>
+        <v>-0.2801418685909002</v>
       </c>
       <c r="D79">
-        <v>-0.6738201953873738</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.3169635345823151</v>
+      </c>
+      <c r="E79">
+        <v>-0.4414615595759558</v>
+      </c>
+      <c r="F79">
+        <v>0.5784478714118533</v>
+      </c>
+      <c r="G79">
+        <v>-0.0659472066517251</v>
+      </c>
+      <c r="H79">
+        <v>0.4555062416824823</v>
+      </c>
+      <c r="I79">
+        <v>0.1043283366379902</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.0004182436642099089</v>
+        <v>0.008812274048073153</v>
       </c>
       <c r="C80">
-        <v>-0.05579564294736127</v>
+        <v>-0.05452410827749287</v>
       </c>
       <c r="D80">
-        <v>0.03821933546926421</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.002851985736229487</v>
+      </c>
+      <c r="E80">
+        <v>0.06895061660300829</v>
+      </c>
+      <c r="F80">
+        <v>-0.02192725710133978</v>
+      </c>
+      <c r="G80">
+        <v>-0.0684956198789497</v>
+      </c>
+      <c r="H80">
+        <v>0.02252831957095932</v>
+      </c>
+      <c r="I80">
+        <v>0.02952020300397707</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.08560065274159892</v>
+        <v>0.0370776478494638</v>
       </c>
       <c r="C81">
-        <v>-0.1575862562559572</v>
+        <v>-0.1585166501741729</v>
       </c>
       <c r="D81">
-        <v>-0.04425042630531128</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07308934212826802</v>
+      </c>
+      <c r="E81">
+        <v>-0.05553162502987596</v>
+      </c>
+      <c r="F81">
+        <v>-0.02633339130630592</v>
+      </c>
+      <c r="G81">
+        <v>0.02600980249655527</v>
+      </c>
+      <c r="H81">
+        <v>-0.08026960088901969</v>
+      </c>
+      <c r="I81">
+        <v>-0.06600170749934509</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.1455444040414887</v>
+        <v>0.07664965675281868</v>
       </c>
       <c r="C82">
-        <v>-0.230863867169469</v>
+        <v>-0.2144701474706617</v>
       </c>
       <c r="D82">
-        <v>-0.01381746988608266</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.1087991692482186</v>
+      </c>
+      <c r="E82">
+        <v>-0.06092932100573968</v>
+      </c>
+      <c r="F82">
+        <v>-0.1046247301642374</v>
+      </c>
+      <c r="G82">
+        <v>0.01132553380393046</v>
+      </c>
+      <c r="H82">
+        <v>-0.1329139853800081</v>
+      </c>
+      <c r="I82">
+        <v>-0.08765271837135755</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.004473810836368408</v>
+        <v>0.003818594233642163</v>
       </c>
       <c r="C83">
-        <v>-0.05279777851174437</v>
+        <v>-0.01809576927701136</v>
       </c>
       <c r="D83">
-        <v>0.04259909649189335</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04388178044052764</v>
+      </c>
+      <c r="E83">
+        <v>-0.06255374596523905</v>
+      </c>
+      <c r="F83">
+        <v>0.08625840853772559</v>
+      </c>
+      <c r="G83">
+        <v>-0.8952730465294689</v>
+      </c>
+      <c r="H83">
+        <v>-0.3017670590381457</v>
+      </c>
+      <c r="I83">
+        <v>0.05041539588987833</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0002520887075937591</v>
+        <v>-0.002698221644710263</v>
       </c>
       <c r="C84">
-        <v>-0.0123826063699781</v>
+        <v>-0.02726691125091644</v>
       </c>
       <c r="D84">
-        <v>0.02511173445343881</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.02405952311889407</v>
+      </c>
+      <c r="E84">
+        <v>0.04765990696879593</v>
+      </c>
+      <c r="F84">
+        <v>0.06009317922926708</v>
+      </c>
+      <c r="G84">
+        <v>0.05231537145867811</v>
+      </c>
+      <c r="H84">
+        <v>-0.03173637701976</v>
+      </c>
+      <c r="I84">
+        <v>-0.06869402405911068</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.09260300857461037</v>
+        <v>0.05026213917272169</v>
       </c>
       <c r="C85">
-        <v>-0.1805815387182195</v>
+        <v>-0.1748285286557044</v>
       </c>
       <c r="D85">
-        <v>-0.08066196165146258</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1201552602431068</v>
+      </c>
+      <c r="E85">
+        <v>-0.08415528586731376</v>
+      </c>
+      <c r="F85">
+        <v>-0.0299259419785204</v>
+      </c>
+      <c r="G85">
+        <v>0.01954911766149933</v>
+      </c>
+      <c r="H85">
+        <v>-0.07242841726971502</v>
+      </c>
+      <c r="I85">
+        <v>-0.0284711669329567</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.029001884546904</v>
+        <v>0.0169317312981259</v>
       </c>
       <c r="C86">
-        <v>-0.03092662751592295</v>
+        <v>-0.05965679222560998</v>
       </c>
       <c r="D86">
-        <v>0.08820155620267695</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05344802453244202</v>
+      </c>
+      <c r="E86">
+        <v>0.03901344415215632</v>
+      </c>
+      <c r="F86">
+        <v>0.07240114215528412</v>
+      </c>
+      <c r="G86">
+        <v>0.04019941682961524</v>
+      </c>
+      <c r="H86">
+        <v>-0.03416056456624894</v>
+      </c>
+      <c r="I86">
+        <v>-0.06150540351251629</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02845354900649534</v>
+        <v>0.01660690706577513</v>
       </c>
       <c r="C87">
-        <v>-0.06930293637626322</v>
+        <v>-0.0903521527735657</v>
       </c>
       <c r="D87">
-        <v>0.1335186859389121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07922837387058321</v>
+      </c>
+      <c r="E87">
+        <v>0.08984531129782396</v>
+      </c>
+      <c r="F87">
+        <v>0.08651847021989713</v>
+      </c>
+      <c r="G87">
+        <v>0.01808606744321595</v>
+      </c>
+      <c r="H87">
+        <v>-0.04485973593877252</v>
+      </c>
+      <c r="I87">
+        <v>-0.03910601995323896</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.0421590268324513</v>
+        <v>0.03839057941534995</v>
       </c>
       <c r="C88">
-        <v>-0.07148759571691286</v>
+        <v>-0.08079847013492393</v>
       </c>
       <c r="D88">
-        <v>-0.001673813699178574</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.009915500646785381</v>
+      </c>
+      <c r="E88">
+        <v>0.01676239503318993</v>
+      </c>
+      <c r="F88">
+        <v>-0.02152310079447548</v>
+      </c>
+      <c r="G88">
+        <v>0.004938432121236023</v>
+      </c>
+      <c r="H88">
+        <v>0.01533394525348533</v>
+      </c>
+      <c r="I88">
+        <v>-0.01776093112284529</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.404341593012543</v>
+        <v>0.4067976231771622</v>
       </c>
       <c r="C89">
-        <v>0.2442748611417696</v>
+        <v>0.163045892400252</v>
       </c>
       <c r="D89">
-        <v>-0.03765375720030236</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02197938460590786</v>
+      </c>
+      <c r="E89">
+        <v>0.00806032694271417</v>
+      </c>
+      <c r="F89">
+        <v>0.1175890626717511</v>
+      </c>
+      <c r="G89">
+        <v>-0.09170813946341939</v>
+      </c>
+      <c r="H89">
+        <v>-0.07176187663240198</v>
+      </c>
+      <c r="I89">
+        <v>-0.004186953367988655</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2982144410292225</v>
+        <v>0.3191369482278098</v>
       </c>
       <c r="C90">
-        <v>0.1593980491405526</v>
+        <v>0.0985529916946028</v>
       </c>
       <c r="D90">
-        <v>0.06787980289270133</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03726524529343556</v>
+      </c>
+      <c r="E90">
+        <v>0.04198379175877547</v>
+      </c>
+      <c r="F90">
+        <v>0.01117241660135056</v>
+      </c>
+      <c r="G90">
+        <v>0.01067288674693422</v>
+      </c>
+      <c r="H90">
+        <v>-0.03298947778151207</v>
+      </c>
+      <c r="I90">
+        <v>-0.003674644995882161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1106140979123937</v>
+        <v>0.06683279506264325</v>
       </c>
       <c r="C91">
-        <v>-0.2152380719118187</v>
+        <v>-0.1901107300868301</v>
       </c>
       <c r="D91">
-        <v>-0.07993794713640415</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.09326859366417919</v>
+      </c>
+      <c r="E91">
+        <v>-0.1109892329044601</v>
+      </c>
+      <c r="F91">
+        <v>-0.01927590680571697</v>
+      </c>
+      <c r="G91">
+        <v>-0.01574155595644696</v>
+      </c>
+      <c r="H91">
+        <v>-0.0547677783317607</v>
+      </c>
+      <c r="I91">
+        <v>-0.0179707276392545</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.3124277929601976</v>
+        <v>0.3427223327361765</v>
       </c>
       <c r="C92">
-        <v>0.1828683794167008</v>
+        <v>0.1332691413057424</v>
       </c>
       <c r="D92">
-        <v>-0.02645813796818825</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02435475345005975</v>
+      </c>
+      <c r="E92">
+        <v>-0.01819447002686721</v>
+      </c>
+      <c r="F92">
+        <v>0.06959461168353075</v>
+      </c>
+      <c r="G92">
+        <v>0.1003713337335821</v>
+      </c>
+      <c r="H92">
+        <v>0.02710910732650073</v>
+      </c>
+      <c r="I92">
+        <v>-0.03532039076274324</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.3060470715668122</v>
+        <v>0.3202078033564906</v>
       </c>
       <c r="C93">
-        <v>0.1643978690640293</v>
+        <v>0.1178252305872765</v>
       </c>
       <c r="D93">
-        <v>-0.04419513837988477</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0297541717767675</v>
+      </c>
+      <c r="E93">
+        <v>-0.01731900808628943</v>
+      </c>
+      <c r="F93">
+        <v>0.02536988219633435</v>
+      </c>
+      <c r="G93">
+        <v>0.01912177420487429</v>
+      </c>
+      <c r="H93">
+        <v>-0.00869026069248946</v>
+      </c>
+      <c r="I93">
+        <v>-0.0528170840043653</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.1849191716353822</v>
+        <v>0.1184250814207182</v>
       </c>
       <c r="C94">
-        <v>-0.2517052159388274</v>
+        <v>-0.2548843179388626</v>
       </c>
       <c r="D94">
-        <v>-0.07393456994415859</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.1680320174833393</v>
+      </c>
+      <c r="E94">
+        <v>-0.1975648777288192</v>
+      </c>
+      <c r="F94">
+        <v>-0.1958001425666399</v>
+      </c>
+      <c r="G94">
+        <v>0.09738107768282654</v>
+      </c>
+      <c r="H94">
+        <v>-0.3969790098787793</v>
+      </c>
+      <c r="I94">
+        <v>0.1098674136443709</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.04233333435402371</v>
+        <v>0.03901433837906607</v>
       </c>
       <c r="C95">
-        <v>-0.04426600115575973</v>
+        <v>-0.08948132246532664</v>
       </c>
       <c r="D95">
-        <v>0.06944439967895276</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.04630353377945471</v>
+      </c>
+      <c r="E95">
+        <v>0.07418503223594707</v>
+      </c>
+      <c r="F95">
+        <v>-0.09279109618072619</v>
+      </c>
+      <c r="G95">
+        <v>0.03225529964475986</v>
+      </c>
+      <c r="H95">
+        <v>0.05605447824142028</v>
+      </c>
+      <c r="I95">
+        <v>-0.09379269676838944</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002238337022482603</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.001497368785608776</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.003229755659259682</v>
+      </c>
+      <c r="E97">
+        <v>0.007441509465345209</v>
+      </c>
+      <c r="F97">
+        <v>0.0006094422669590549</v>
+      </c>
+      <c r="G97">
+        <v>0.007104750516000385</v>
+      </c>
+      <c r="H97">
+        <v>0.003668348659668392</v>
+      </c>
+      <c r="I97">
+        <v>-0.001765298930439329</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1116921955866311</v>
+        <v>0.1300264386623552</v>
       </c>
       <c r="C98">
-        <v>-0.0953975448295753</v>
+        <v>-0.1420176796688473</v>
       </c>
       <c r="D98">
-        <v>0.1155192076026118</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.02806775003066077</v>
+      </c>
+      <c r="E98">
+        <v>0.1348161575394931</v>
+      </c>
+      <c r="F98">
+        <v>-0.2237278382569357</v>
+      </c>
+      <c r="G98">
+        <v>-0.09002640193154385</v>
+      </c>
+      <c r="H98">
+        <v>0.289659961656729</v>
+      </c>
+      <c r="I98">
+        <v>0.3130187644524725</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.007874096293394256</v>
+        <v>0.005212120290086793</v>
       </c>
       <c r="C101">
-        <v>-0.03262629575925784</v>
+        <v>-0.05818143151375291</v>
       </c>
       <c r="D101">
-        <v>0.06847735181648766</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03962869964904719</v>
+      </c>
+      <c r="E101">
+        <v>0.1110012287150133</v>
+      </c>
+      <c r="F101">
+        <v>0.02643417864661678</v>
+      </c>
+      <c r="G101">
+        <v>-0.05805499440034461</v>
+      </c>
+      <c r="H101">
+        <v>0.08058872156403213</v>
+      </c>
+      <c r="I101">
+        <v>-0.1725704440209118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.06461033188379478</v>
+        <v>0.0232538370451071</v>
       </c>
       <c r="C102">
-        <v>-0.1179378872303993</v>
+        <v>-0.08695877889931564</v>
       </c>
       <c r="D102">
-        <v>0.002910679016686776</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04514841054524948</v>
+      </c>
+      <c r="E102">
+        <v>-0.04489014092562653</v>
+      </c>
+      <c r="F102">
+        <v>-0.04021454282180914</v>
+      </c>
+      <c r="G102">
+        <v>-0.006927274799669589</v>
+      </c>
+      <c r="H102">
+        <v>-0.062701365471205</v>
+      </c>
+      <c r="I102">
+        <v>-0.01188785951705515</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
